--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProject\X-ET7\Unity\Assets\Config\Excel\Datas\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96139542-B95C-9B47-AEED-1EBDF7B3FFCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1207D2D-50F0-4661-85F7-ED03156CFC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="7460" windowWidth="26740" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="3795" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>192.178.50.111</t>
+    <t>172.29.165.4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,22 +469,22 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,10 +535,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -551,30 +551,30 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
